--- a/data/pca/factorExposure/factorExposure_2011-08-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02828488653500414</v>
+        <v>0.01861103680145243</v>
       </c>
       <c r="C2">
-        <v>0.02187597449901116</v>
+        <v>0.007268481589391052</v>
       </c>
       <c r="D2">
-        <v>0.07328515290254649</v>
+        <v>-0.03629734258647144</v>
       </c>
       <c r="E2">
-        <v>-0.02994379727887501</v>
+        <v>0.02187729986982576</v>
       </c>
       <c r="F2">
-        <v>0.006875135330586589</v>
+        <v>-0.01770543774646811</v>
       </c>
       <c r="G2">
-        <v>-0.05204611079496421</v>
+        <v>0.02649620757159762</v>
       </c>
       <c r="H2">
-        <v>-0.02220258649626487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01492961332146885</v>
+      </c>
+      <c r="I2">
+        <v>0.02465268229355787</v>
+      </c>
+      <c r="J2">
+        <v>0.0762832995292794</v>
+      </c>
+      <c r="K2">
+        <v>0.03741246433699681</v>
+      </c>
+      <c r="L2">
+        <v>-0.04262586461685085</v>
+      </c>
+      <c r="M2">
+        <v>0.05974578766377419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07026712081109537</v>
+        <v>0.09628288584223312</v>
       </c>
       <c r="C4">
-        <v>0.07427533285107704</v>
+        <v>0.07433410675151117</v>
       </c>
       <c r="D4">
-        <v>0.02151804525183661</v>
+        <v>-0.02116771612777423</v>
       </c>
       <c r="E4">
-        <v>-0.02086581799325943</v>
+        <v>0.05812246429762338</v>
       </c>
       <c r="F4">
-        <v>-0.04126075610932365</v>
+        <v>-0.06636617562754597</v>
       </c>
       <c r="G4">
-        <v>-0.01577138673554153</v>
+        <v>0.02112108900804381</v>
       </c>
       <c r="H4">
-        <v>0.02669585052306429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.09558073120429861</v>
+      </c>
+      <c r="I4">
+        <v>0.002599720670199732</v>
+      </c>
+      <c r="J4">
+        <v>-0.04567616242028581</v>
+      </c>
+      <c r="K4">
+        <v>-0.05108078806090064</v>
+      </c>
+      <c r="L4">
+        <v>-0.03665784795520738</v>
+      </c>
+      <c r="M4">
+        <v>0.007037290972854985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1283795156608754</v>
+        <v>0.1320269253168167</v>
       </c>
       <c r="C6">
-        <v>0.04836039299354554</v>
+        <v>0.04589389245087917</v>
       </c>
       <c r="D6">
-        <v>0.06194850355907219</v>
+        <v>-0.03022004902590755</v>
       </c>
       <c r="E6">
-        <v>-0.04753031500929763</v>
+        <v>-0.001615603278568216</v>
       </c>
       <c r="F6">
-        <v>-0.04860588728622574</v>
+        <v>-0.06087051623670097</v>
       </c>
       <c r="G6">
-        <v>0.07299778869692519</v>
+        <v>-0.1552723694027865</v>
       </c>
       <c r="H6">
-        <v>-0.1293421627595537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1153646774156554</v>
+      </c>
+      <c r="I6">
+        <v>0.3902752326902354</v>
+      </c>
+      <c r="J6">
+        <v>-0.2101436643816121</v>
+      </c>
+      <c r="K6">
+        <v>-0.05130276984044434</v>
+      </c>
+      <c r="L6">
+        <v>0.1105266834132331</v>
+      </c>
+      <c r="M6">
+        <v>-0.04969183370370398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.07008585582021858</v>
+        <v>0.06649551288267436</v>
       </c>
       <c r="C7">
-        <v>0.05665430092758682</v>
+        <v>0.070296959014595</v>
       </c>
       <c r="D7">
-        <v>0.0540381081085343</v>
+        <v>-0.03877182217102475</v>
       </c>
       <c r="E7">
-        <v>-0.01350384409008113</v>
+        <v>0.01784664465822454</v>
       </c>
       <c r="F7">
-        <v>-0.03961277152350755</v>
+        <v>-0.004997330863027602</v>
       </c>
       <c r="G7">
-        <v>0.03598715442526088</v>
+        <v>-0.002038507026611819</v>
       </c>
       <c r="H7">
-        <v>-6.951015735715009e-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.04877776500498465</v>
+      </c>
+      <c r="I7">
+        <v>-0.07491273174661112</v>
+      </c>
+      <c r="J7">
+        <v>0.0151108074776408</v>
+      </c>
+      <c r="K7">
+        <v>-0.02703356268659867</v>
+      </c>
+      <c r="L7">
+        <v>-0.04510240619193356</v>
+      </c>
+      <c r="M7">
+        <v>-0.07740559318826068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02369954909775231</v>
+        <v>0.03583674661251065</v>
       </c>
       <c r="C8">
-        <v>0.02933055778603446</v>
+        <v>0.01254927300045458</v>
       </c>
       <c r="D8">
-        <v>0.04303958728610768</v>
+        <v>-0.03249299946562811</v>
       </c>
       <c r="E8">
-        <v>-0.07861049859191033</v>
+        <v>0.07264677596286458</v>
       </c>
       <c r="F8">
-        <v>-0.00173554294281627</v>
+        <v>-0.07690054191547847</v>
       </c>
       <c r="G8">
-        <v>0.007443713595515196</v>
+        <v>-0.006795300284835601</v>
       </c>
       <c r="H8">
-        <v>-0.031506137259406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.08716872177372041</v>
+      </c>
+      <c r="I8">
+        <v>-0.007479873507990343</v>
+      </c>
+      <c r="J8">
+        <v>-0.04447325576414109</v>
+      </c>
+      <c r="K8">
+        <v>-0.05249871897534277</v>
+      </c>
+      <c r="L8">
+        <v>-0.006949755187860818</v>
+      </c>
+      <c r="M8">
+        <v>0.06435719722241741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07320038678290186</v>
+        <v>0.08348318928205689</v>
       </c>
       <c r="C9">
-        <v>0.08286072623958303</v>
+        <v>0.06809728441576662</v>
       </c>
       <c r="D9">
-        <v>0.02619344284085925</v>
+        <v>-0.01658121258639238</v>
       </c>
       <c r="E9">
-        <v>-0.01754862895702981</v>
+        <v>0.04117433359797226</v>
       </c>
       <c r="F9">
-        <v>-0.02295907133632329</v>
+        <v>-0.06939501349845476</v>
       </c>
       <c r="G9">
-        <v>-0.02115305056890136</v>
+        <v>0.0188785011282057</v>
       </c>
       <c r="H9">
-        <v>0.02088468661387257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.1021481983725987</v>
+      </c>
+      <c r="I9">
+        <v>-0.004714417532033227</v>
+      </c>
+      <c r="J9">
+        <v>-0.01759191056176136</v>
+      </c>
+      <c r="K9">
+        <v>-0.02944329556230245</v>
+      </c>
+      <c r="L9">
+        <v>-0.00854863754925771</v>
+      </c>
+      <c r="M9">
+        <v>-0.005487285010930312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.05599973761664866</v>
+        <v>0.1072849404372982</v>
       </c>
       <c r="C10">
-        <v>-0.1257045622164565</v>
+        <v>-0.1650270149195624</v>
       </c>
       <c r="D10">
-        <v>0.06783150084145949</v>
+        <v>-0.0364013271624493</v>
       </c>
       <c r="E10">
-        <v>-0.0315658642069447</v>
+        <v>0.0420860081644888</v>
       </c>
       <c r="F10">
-        <v>-0.01790231081854785</v>
+        <v>0.0369785475455366</v>
       </c>
       <c r="G10">
-        <v>0.05131292810313533</v>
+        <v>-0.01993595471877549</v>
       </c>
       <c r="H10">
-        <v>-0.04514496059601407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.005168575517404325</v>
+      </c>
+      <c r="I10">
+        <v>-0.03087326825633004</v>
+      </c>
+      <c r="J10">
+        <v>0.04198818021164961</v>
+      </c>
+      <c r="K10">
+        <v>-0.00515955929191539</v>
+      </c>
+      <c r="L10">
+        <v>0.003203740329083113</v>
+      </c>
+      <c r="M10">
+        <v>-0.1070818764808012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06776860013728547</v>
+        <v>0.06739231096381951</v>
       </c>
       <c r="C11">
-        <v>0.0858988526168266</v>
+        <v>0.06800280033333579</v>
       </c>
       <c r="D11">
-        <v>0.03538353555670261</v>
+        <v>-0.02317809357300684</v>
       </c>
       <c r="E11">
-        <v>0.008375729810100357</v>
+        <v>0.01453840659394224</v>
       </c>
       <c r="F11">
-        <v>0.02899978566361422</v>
+        <v>-0.08289450753152916</v>
       </c>
       <c r="G11">
-        <v>-0.02805146851052196</v>
+        <v>0.01954096692212545</v>
       </c>
       <c r="H11">
-        <v>0.0243715747941888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06761261841515639</v>
+      </c>
+      <c r="I11">
+        <v>-0.07966562666504241</v>
+      </c>
+      <c r="J11">
+        <v>0.07564252894238405</v>
+      </c>
+      <c r="K11">
+        <v>0.01077495506134956</v>
+      </c>
+      <c r="L11">
+        <v>0.0498412731096917</v>
+      </c>
+      <c r="M11">
+        <v>-0.01242763257391618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06109618413016488</v>
+        <v>0.0677070529713731</v>
       </c>
       <c r="C12">
-        <v>0.05347363482284816</v>
+        <v>0.05701117102261175</v>
       </c>
       <c r="D12">
-        <v>0.01916634344311334</v>
+        <v>-0.009180126554017953</v>
       </c>
       <c r="E12">
-        <v>-0.006716671252380023</v>
+        <v>0.02262471981183282</v>
       </c>
       <c r="F12">
-        <v>-0.01308096574101286</v>
+        <v>-0.08102817195022421</v>
       </c>
       <c r="G12">
-        <v>0.01054662295798571</v>
+        <v>0.01426984253417097</v>
       </c>
       <c r="H12">
-        <v>0.03279907165432094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.07253671366045071</v>
+      </c>
+      <c r="I12">
+        <v>-0.06991655523872173</v>
+      </c>
+      <c r="J12">
+        <v>0.07890358895180985</v>
+      </c>
+      <c r="K12">
+        <v>-0.05503772324742701</v>
+      </c>
+      <c r="L12">
+        <v>0.05532672420594445</v>
+      </c>
+      <c r="M12">
+        <v>0.007514920986801931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05696010802911491</v>
+        <v>0.05270030732623147</v>
       </c>
       <c r="C13">
-        <v>0.02955981295746496</v>
+        <v>0.04000168503404836</v>
       </c>
       <c r="D13">
-        <v>0.01393215407720625</v>
+        <v>-0.004963824513863511</v>
       </c>
       <c r="E13">
-        <v>-0.03235209297190583</v>
+        <v>0.03720769261203382</v>
       </c>
       <c r="F13">
-        <v>0.009534277165531202</v>
+        <v>-0.03206154069505376</v>
       </c>
       <c r="G13">
-        <v>-0.02726902271500551</v>
+        <v>0.02008240095626952</v>
       </c>
       <c r="H13">
-        <v>0.04669466353329275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03953362053856382</v>
+      </c>
+      <c r="I13">
+        <v>-0.03406652425102746</v>
+      </c>
+      <c r="J13">
+        <v>-0.0391774568788573</v>
+      </c>
+      <c r="K13">
+        <v>-0.0577229645339676</v>
+      </c>
+      <c r="L13">
+        <v>-0.008156803163014781</v>
+      </c>
+      <c r="M13">
+        <v>0.02664245397894335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.0410552274870912</v>
+        <v>0.04545053857121002</v>
       </c>
       <c r="C14">
-        <v>0.00926786940469217</v>
+        <v>0.02240335230610681</v>
       </c>
       <c r="D14">
-        <v>0.01299636512821702</v>
+        <v>-0.0118163333901905</v>
       </c>
       <c r="E14">
-        <v>0.002469935798436731</v>
+        <v>0.0118897375262528</v>
       </c>
       <c r="F14">
-        <v>-0.03402693187804774</v>
+        <v>-0.04792748711922889</v>
       </c>
       <c r="G14">
-        <v>-0.00221246609289639</v>
+        <v>0.04271940739924626</v>
       </c>
       <c r="H14">
-        <v>-0.04784879926016651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.07240495829001023</v>
+      </c>
+      <c r="I14">
+        <v>-0.004324017666378938</v>
+      </c>
+      <c r="J14">
+        <v>-0.04352459692263607</v>
+      </c>
+      <c r="K14">
+        <v>-0.0102992384173282</v>
+      </c>
+      <c r="L14">
+        <v>-0.01576144430955593</v>
+      </c>
+      <c r="M14">
+        <v>-0.04834831508837496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03726146991803529</v>
+        <v>0.03527415341460458</v>
       </c>
       <c r="C15">
-        <v>-0.00354068479125445</v>
+        <v>0.01327927281360359</v>
       </c>
       <c r="D15">
-        <v>-0.004299414887285416</v>
+        <v>0.01207278515860008</v>
       </c>
       <c r="E15">
-        <v>-0.0272516317063697</v>
+        <v>0.01415458239820263</v>
       </c>
       <c r="F15">
-        <v>-0.02497538611312581</v>
+        <v>-0.02045292108651936</v>
       </c>
       <c r="G15">
-        <v>-0.00191017608394297</v>
+        <v>-0.002857040958510334</v>
       </c>
       <c r="H15">
-        <v>0.0165356290545173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04121277694341099</v>
+      </c>
+      <c r="I15">
+        <v>-0.01241102316966015</v>
+      </c>
+      <c r="J15">
+        <v>-0.05952688072879139</v>
+      </c>
+      <c r="K15">
+        <v>-0.02238028907963839</v>
+      </c>
+      <c r="L15">
+        <v>-0.01358433100126884</v>
+      </c>
+      <c r="M15">
+        <v>-0.0157592862496058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05070668124856336</v>
+        <v>0.06852355450454914</v>
       </c>
       <c r="C16">
-        <v>0.07635012706237539</v>
+        <v>0.07275790694712707</v>
       </c>
       <c r="D16">
-        <v>0.01708791361623135</v>
+        <v>-0.01335816952312798</v>
       </c>
       <c r="E16">
-        <v>-0.0124351508419877</v>
+        <v>0.03099534769915658</v>
       </c>
       <c r="F16">
-        <v>-0.02177812753190335</v>
+        <v>-0.0673997486538688</v>
       </c>
       <c r="G16">
-        <v>-0.02395608645981073</v>
+        <v>0.01645534001481283</v>
       </c>
       <c r="H16">
-        <v>0.008802348567898985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.08360857664681848</v>
+      </c>
+      <c r="I16">
+        <v>-0.07244637965236529</v>
+      </c>
+      <c r="J16">
+        <v>0.05970405710018607</v>
+      </c>
+      <c r="K16">
+        <v>-0.001735174258479953</v>
+      </c>
+      <c r="L16">
+        <v>0.02716328048063952</v>
+      </c>
+      <c r="M16">
+        <v>-0.007904462418219241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04326093874901229</v>
+        <v>0.04549492404584598</v>
       </c>
       <c r="C20">
-        <v>0.04926962086408742</v>
+        <v>0.03846820139580336</v>
       </c>
       <c r="D20">
-        <v>0.02709022130849239</v>
+        <v>-0.02419583113987511</v>
       </c>
       <c r="E20">
-        <v>-0.02216088359143373</v>
+        <v>0.01181766144348587</v>
       </c>
       <c r="F20">
-        <v>-0.01682859250416538</v>
+        <v>-0.05960339562521569</v>
       </c>
       <c r="G20">
-        <v>-0.02380833327286067</v>
+        <v>0.02953211104227489</v>
       </c>
       <c r="H20">
-        <v>0.02888156714918163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.09159857674161233</v>
+      </c>
+      <c r="I20">
+        <v>-0.03788138516986536</v>
+      </c>
+      <c r="J20">
+        <v>0.03481075754548373</v>
+      </c>
+      <c r="K20">
+        <v>-0.06336307310314747</v>
+      </c>
+      <c r="L20">
+        <v>0.001056391063998871</v>
+      </c>
+      <c r="M20">
+        <v>-0.02406847846746446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01445970790934697</v>
+        <v>0.02552570138833493</v>
       </c>
       <c r="C21">
-        <v>0.02329983292474913</v>
+        <v>0.01726988614031387</v>
       </c>
       <c r="D21">
-        <v>-0.006333376539199397</v>
+        <v>0.004438698711295371</v>
       </c>
       <c r="E21">
-        <v>-0.08503371551732068</v>
+        <v>0.04405917601112452</v>
       </c>
       <c r="F21">
-        <v>0.0009254420145152532</v>
+        <v>-0.03013349311086798</v>
       </c>
       <c r="G21">
-        <v>0.08712206972273782</v>
+        <v>-0.08297562733576723</v>
       </c>
       <c r="H21">
-        <v>0.01934445384401002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.05472751157260521</v>
+      </c>
+      <c r="I21">
+        <v>-0.02515672258347937</v>
+      </c>
+      <c r="J21">
+        <v>-0.0770651077580226</v>
+      </c>
+      <c r="K21">
+        <v>-0.05819356896133761</v>
+      </c>
+      <c r="L21">
+        <v>0.03396274099354514</v>
+      </c>
+      <c r="M21">
+        <v>-0.11064527263287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.04042978190152417</v>
+        <v>0.05444255188655295</v>
       </c>
       <c r="C22">
-        <v>0.1078138642034062</v>
+        <v>0.08108105075772648</v>
       </c>
       <c r="D22">
-        <v>-0.09357964080901279</v>
+        <v>0.2403632729890889</v>
       </c>
       <c r="E22">
-        <v>-0.4113586965491949</v>
+        <v>0.5371365383235581</v>
       </c>
       <c r="F22">
-        <v>-0.2089624819747647</v>
+        <v>0.2891413145152055</v>
       </c>
       <c r="G22">
-        <v>-0.02208936869431278</v>
+        <v>-0.01436726970685204</v>
       </c>
       <c r="H22">
-        <v>0.2850809113110694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1224922374930262</v>
+      </c>
+      <c r="I22">
+        <v>0.08402908666436609</v>
+      </c>
+      <c r="J22">
+        <v>0.01224907807757449</v>
+      </c>
+      <c r="K22">
+        <v>-0.01247981864419144</v>
+      </c>
+      <c r="L22">
+        <v>-0.1005880199030181</v>
+      </c>
+      <c r="M22">
+        <v>-0.05088377126421379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.04127969411843625</v>
+        <v>0.05517340846884394</v>
       </c>
       <c r="C23">
-        <v>0.1067491419733189</v>
+        <v>0.08134281423565094</v>
       </c>
       <c r="D23">
-        <v>-0.09292110945645735</v>
+        <v>0.2407337293962608</v>
       </c>
       <c r="E23">
-        <v>-0.4129128150052677</v>
+        <v>0.5402978843454669</v>
       </c>
       <c r="F23">
-        <v>-0.2068198502351281</v>
+        <v>0.2849726400557782</v>
       </c>
       <c r="G23">
-        <v>-0.02082714381601196</v>
+        <v>-0.01384805939932873</v>
       </c>
       <c r="H23">
-        <v>0.281037471875132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.122042935723345</v>
+      </c>
+      <c r="I23">
+        <v>0.0891932669845433</v>
+      </c>
+      <c r="J23">
+        <v>0.01089059138021017</v>
+      </c>
+      <c r="K23">
+        <v>-0.01040291303522227</v>
+      </c>
+      <c r="L23">
+        <v>-0.09914821253204124</v>
+      </c>
+      <c r="M23">
+        <v>-0.04964214833293284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07305445105134016</v>
+        <v>0.0748175545155426</v>
       </c>
       <c r="C24">
-        <v>0.07760345004349679</v>
+        <v>0.07167681427962148</v>
       </c>
       <c r="D24">
-        <v>0.03406232174875595</v>
+        <v>-0.01322018511138494</v>
       </c>
       <c r="E24">
-        <v>-0.02983413100160107</v>
+        <v>0.03554461022614751</v>
       </c>
       <c r="F24">
-        <v>0.01361691416270071</v>
+        <v>-0.08054935788298517</v>
       </c>
       <c r="G24">
-        <v>-0.01325158305892204</v>
+        <v>0.01292698040448967</v>
       </c>
       <c r="H24">
-        <v>0.005540328026689839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.07542140583317559</v>
+      </c>
+      <c r="I24">
+        <v>-0.04894896730353554</v>
+      </c>
+      <c r="J24">
+        <v>0.06636211941480955</v>
+      </c>
+      <c r="K24">
+        <v>-0.01589821640403776</v>
+      </c>
+      <c r="L24">
+        <v>0.04289162557071559</v>
+      </c>
+      <c r="M24">
+        <v>-0.01756025867653864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06670185363640083</v>
+        <v>0.07192213357133244</v>
       </c>
       <c r="C25">
-        <v>0.04846087578443762</v>
+        <v>0.04698535147250848</v>
       </c>
       <c r="D25">
-        <v>0.041403069537506</v>
+        <v>-0.0214346117293425</v>
       </c>
       <c r="E25">
-        <v>-0.03863003331026622</v>
+        <v>0.03235847481659326</v>
       </c>
       <c r="F25">
-        <v>-0.008887240943437113</v>
+        <v>-0.0784432422583274</v>
       </c>
       <c r="G25">
-        <v>-0.03432153744347859</v>
+        <v>0.03504247209538622</v>
       </c>
       <c r="H25">
-        <v>-0.0122822670657788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09186328316561602</v>
+      </c>
+      <c r="I25">
+        <v>-0.04341464325115806</v>
+      </c>
+      <c r="J25">
+        <v>0.09051918068011602</v>
+      </c>
+      <c r="K25">
+        <v>0.005003663319475869</v>
+      </c>
+      <c r="L25">
+        <v>0.04518152120154619</v>
+      </c>
+      <c r="M25">
+        <v>0.002169783561355977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03956123915595848</v>
+        <v>0.04029614582068027</v>
       </c>
       <c r="C26">
-        <v>0.0256013459800622</v>
+        <v>0.02355375720246002</v>
       </c>
       <c r="D26">
-        <v>0.0336570306244483</v>
+        <v>0.005707813909180783</v>
       </c>
       <c r="E26">
-        <v>0.006897346536620296</v>
+        <v>0.02344662755266511</v>
       </c>
       <c r="F26">
-        <v>-0.03274911998727895</v>
+        <v>-0.02869862770480651</v>
       </c>
       <c r="G26">
-        <v>0.005992748694469554</v>
+        <v>0.007438787968778807</v>
       </c>
       <c r="H26">
-        <v>0.03365432499136447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05322862373684172</v>
+      </c>
+      <c r="I26">
+        <v>-0.05424635467288622</v>
+      </c>
+      <c r="J26">
+        <v>-0.1040809742643515</v>
+      </c>
+      <c r="K26">
+        <v>-0.0428516066760391</v>
+      </c>
+      <c r="L26">
+        <v>-0.02846326798097837</v>
+      </c>
+      <c r="M26">
+        <v>-0.08493761025508464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1063456738855684</v>
+        <v>0.1367316791761373</v>
       </c>
       <c r="C28">
-        <v>-0.2898880483023045</v>
+        <v>-0.288855401793036</v>
       </c>
       <c r="D28">
-        <v>0.07667900894272371</v>
+        <v>-0.02263411145083411</v>
       </c>
       <c r="E28">
-        <v>-0.01964206788495571</v>
+        <v>0.0340512864574674</v>
       </c>
       <c r="F28">
-        <v>-0.03910087612937961</v>
+        <v>0.009895616026193743</v>
       </c>
       <c r="G28">
-        <v>0.06488484601372799</v>
+        <v>-0.03156056520836986</v>
       </c>
       <c r="H28">
-        <v>0.009017399306991632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01075063450377365</v>
+      </c>
+      <c r="I28">
+        <v>-0.01731201425164481</v>
+      </c>
+      <c r="J28">
+        <v>-0.04954890094716441</v>
+      </c>
+      <c r="K28">
+        <v>0.001010319195477062</v>
+      </c>
+      <c r="L28">
+        <v>-0.01777779954497881</v>
+      </c>
+      <c r="M28">
+        <v>0.04918988682409961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04807063909274097</v>
+        <v>0.04555994028573454</v>
       </c>
       <c r="C29">
-        <v>0.006915601109994574</v>
+        <v>0.02128841333309353</v>
       </c>
       <c r="D29">
-        <v>0.0103150570255337</v>
+        <v>-0.011409480772181</v>
       </c>
       <c r="E29">
-        <v>-0.02574454011476065</v>
+        <v>0.02269696289629462</v>
       </c>
       <c r="F29">
-        <v>-0.03662217723673657</v>
+        <v>-0.03904623662073227</v>
       </c>
       <c r="G29">
-        <v>-0.01583504972821058</v>
+        <v>0.04687515390559593</v>
       </c>
       <c r="H29">
-        <v>-0.01377752522894935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.06132989006763202</v>
+      </c>
+      <c r="I29">
+        <v>-0.001915535177966329</v>
+      </c>
+      <c r="J29">
+        <v>-0.02349321260570203</v>
+      </c>
+      <c r="K29">
+        <v>-0.008638477419062237</v>
+      </c>
+      <c r="L29">
+        <v>-0.02090868430577978</v>
+      </c>
+      <c r="M29">
+        <v>-0.03328512711637922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.130638754943203</v>
+        <v>0.1061088963043917</v>
       </c>
       <c r="C30">
-        <v>0.09966183978984706</v>
+        <v>0.07215864586404482</v>
       </c>
       <c r="D30">
-        <v>0.06571315001313675</v>
+        <v>-0.02782580601350458</v>
       </c>
       <c r="E30">
-        <v>-0.02461051858080864</v>
+        <v>0.08406186973225867</v>
       </c>
       <c r="F30">
-        <v>-0.06116894828831981</v>
+        <v>-0.1290599149036946</v>
       </c>
       <c r="G30">
-        <v>0.002076340234632487</v>
+        <v>-0.036714733251298</v>
       </c>
       <c r="H30">
-        <v>0.0234052069278286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1936848536375152</v>
+      </c>
+      <c r="I30">
+        <v>-0.01557770688372184</v>
+      </c>
+      <c r="J30">
+        <v>0.06356763103928509</v>
+      </c>
+      <c r="K30">
+        <v>-0.2450656223946933</v>
+      </c>
+      <c r="L30">
+        <v>-0.3331882536066347</v>
+      </c>
+      <c r="M30">
+        <v>0.1180300430724096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04908687033350188</v>
+        <v>0.03546781153070395</v>
       </c>
       <c r="C31">
-        <v>0.02143620384928588</v>
+        <v>0.04204914637546054</v>
       </c>
       <c r="D31">
-        <v>-0.001549980082444471</v>
+        <v>0.01133054498956502</v>
       </c>
       <c r="E31">
-        <v>0.008518839344907766</v>
+        <v>0.004297330377894411</v>
       </c>
       <c r="F31">
-        <v>-0.02120119944198685</v>
+        <v>-0.008680788770836386</v>
       </c>
       <c r="G31">
-        <v>-0.02514128459476636</v>
+        <v>0.05273009741544864</v>
       </c>
       <c r="H31">
-        <v>0.03554595411981319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03558868656349706</v>
+      </c>
+      <c r="I31">
+        <v>-0.005918240583024204</v>
+      </c>
+      <c r="J31">
+        <v>-0.004556015785374104</v>
+      </c>
+      <c r="K31">
+        <v>-0.02807946210279932</v>
+      </c>
+      <c r="L31">
+        <v>0.02000491745360322</v>
+      </c>
+      <c r="M31">
+        <v>0.01512378568504067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02955579039134878</v>
+        <v>0.04870399052230424</v>
       </c>
       <c r="C32">
-        <v>0.01873559072546009</v>
+        <v>0.003761555159768303</v>
       </c>
       <c r="D32">
-        <v>-0.02367337949089279</v>
+        <v>0.01877116125292602</v>
       </c>
       <c r="E32">
-        <v>-0.09330257617334496</v>
+        <v>0.06661356820802884</v>
       </c>
       <c r="F32">
-        <v>-0.02575199926517668</v>
+        <v>-0.02293999507142756</v>
       </c>
       <c r="G32">
-        <v>-0.01228809391072069</v>
+        <v>-0.003461784880791781</v>
       </c>
       <c r="H32">
-        <v>0.08149554707330385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.01431726797832347</v>
+      </c>
+      <c r="I32">
+        <v>-0.05041780180063763</v>
+      </c>
+      <c r="J32">
+        <v>-0.07409665348878462</v>
+      </c>
+      <c r="K32">
+        <v>-0.02311939379926529</v>
+      </c>
+      <c r="L32">
+        <v>-0.08740281678445021</v>
+      </c>
+      <c r="M32">
+        <v>0.1041092568484045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09738407513478195</v>
+        <v>0.09978674350664958</v>
       </c>
       <c r="C33">
-        <v>0.05899593315504414</v>
+        <v>0.06683400064873019</v>
       </c>
       <c r="D33">
-        <v>0.01547520072337654</v>
+        <v>0.0209326598186724</v>
       </c>
       <c r="E33">
-        <v>0.001517884370874646</v>
+        <v>0.01754678592473816</v>
       </c>
       <c r="F33">
-        <v>-0.01737130850521985</v>
+        <v>-0.05084747955824748</v>
       </c>
       <c r="G33">
-        <v>-0.0364324622094222</v>
+        <v>0.04901413961422144</v>
       </c>
       <c r="H33">
-        <v>0.03554518958615856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.06108176516691689</v>
+      </c>
+      <c r="I33">
+        <v>-0.007155641420566037</v>
+      </c>
+      <c r="J33">
+        <v>-0.02700857516299929</v>
+      </c>
+      <c r="K33">
+        <v>-0.03721500689846126</v>
+      </c>
+      <c r="L33">
+        <v>0.009527196779741441</v>
+      </c>
+      <c r="M33">
+        <v>0.004310397325350579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05810426742616479</v>
+        <v>0.06306774852568413</v>
       </c>
       <c r="C34">
-        <v>0.07782724525841526</v>
+        <v>0.06041300018658841</v>
       </c>
       <c r="D34">
-        <v>0.01985792803954192</v>
+        <v>-0.01128699928110774</v>
       </c>
       <c r="E34">
-        <v>-0.04272203632722334</v>
+        <v>0.02118616034275316</v>
       </c>
       <c r="F34">
-        <v>-0.006591145541649542</v>
+        <v>-0.07154171564952402</v>
       </c>
       <c r="G34">
-        <v>-0.01945694566765029</v>
+        <v>0.03171774334982692</v>
       </c>
       <c r="H34">
-        <v>0.00262885040866539</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.07551832750252747</v>
+      </c>
+      <c r="I34">
+        <v>-0.04358011193178599</v>
+      </c>
+      <c r="J34">
+        <v>0.06399151643736613</v>
+      </c>
+      <c r="K34">
+        <v>-0.006306423483511642</v>
+      </c>
+      <c r="L34">
+        <v>0.05507350115864353</v>
+      </c>
+      <c r="M34">
+        <v>-0.0145135208451405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03842953038037019</v>
+        <v>0.03133037727143324</v>
       </c>
       <c r="C35">
-        <v>0.01573666156952139</v>
+        <v>0.02192289311850707</v>
       </c>
       <c r="D35">
-        <v>0.003536404037133913</v>
+        <v>0.002863585439261695</v>
       </c>
       <c r="E35">
-        <v>-0.0133171293457975</v>
+        <v>0.001273546156169369</v>
       </c>
       <c r="F35">
-        <v>-0.03839221832912516</v>
+        <v>-0.008427413296091002</v>
       </c>
       <c r="G35">
-        <v>-0.03174300210420774</v>
+        <v>0.02350384015790198</v>
       </c>
       <c r="H35">
-        <v>0.04432750420465446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0644182826322985</v>
+      </c>
+      <c r="I35">
+        <v>-0.03495107618112433</v>
+      </c>
+      <c r="J35">
+        <v>0.02744029520871959</v>
+      </c>
+      <c r="K35">
+        <v>-0.02419640259757018</v>
+      </c>
+      <c r="L35">
+        <v>-0.01797360301889855</v>
+      </c>
+      <c r="M35">
+        <v>-0.02207861464121261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02928298366625736</v>
+        <v>0.02976872111015818</v>
       </c>
       <c r="C36">
-        <v>0.02064533085393476</v>
+        <v>0.01681304301207154</v>
       </c>
       <c r="D36">
-        <v>0.0270109611019414</v>
+        <v>-0.005593548414326325</v>
       </c>
       <c r="E36">
-        <v>-0.02391319955179488</v>
+        <v>0.03002456486831</v>
       </c>
       <c r="F36">
-        <v>-0.01245830473613264</v>
+        <v>-0.03917110610658228</v>
       </c>
       <c r="G36">
-        <v>-0.018505018015519</v>
+        <v>0.02134591366366296</v>
       </c>
       <c r="H36">
-        <v>0.01411268830741323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05875613841210712</v>
+      </c>
+      <c r="I36">
+        <v>-0.01525675877231505</v>
+      </c>
+      <c r="J36">
+        <v>-0.01536745638557094</v>
+      </c>
+      <c r="K36">
+        <v>-0.03492520545024744</v>
+      </c>
+      <c r="L36">
+        <v>0.01828625053869798</v>
+      </c>
+      <c r="M36">
+        <v>-0.04741768049723875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04033224951521267</v>
+        <v>0.03464997986116312</v>
       </c>
       <c r="C38">
-        <v>0.02068384373706995</v>
+        <v>0.04597082297601396</v>
       </c>
       <c r="D38">
-        <v>-0.03220462324132627</v>
+        <v>0.008872753334435142</v>
       </c>
       <c r="E38">
-        <v>-0.05439212007921321</v>
+        <v>0.01544846820633993</v>
       </c>
       <c r="F38">
-        <v>-0.006806521765145728</v>
+        <v>0.03906803024858452</v>
       </c>
       <c r="G38">
-        <v>0.01172485434304385</v>
+        <v>0.01793488948131634</v>
       </c>
       <c r="H38">
-        <v>0.04293366393855157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.09079547418364166</v>
+      </c>
+      <c r="I38">
+        <v>-0.01806676324029206</v>
+      </c>
+      <c r="J38">
+        <v>-0.0873892119419197</v>
+      </c>
+      <c r="K38">
+        <v>0.02772514670625754</v>
+      </c>
+      <c r="L38">
+        <v>-0.07685860302154354</v>
+      </c>
+      <c r="M38">
+        <v>-0.09801459399521756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09537635780138021</v>
+        <v>0.09291336989602378</v>
       </c>
       <c r="C39">
-        <v>0.08799628709875155</v>
+        <v>0.07393729733618007</v>
       </c>
       <c r="D39">
-        <v>0.008007679996330898</v>
+        <v>-0.003984654813603471</v>
       </c>
       <c r="E39">
-        <v>-0.03101384227791647</v>
+        <v>0.03722501236246076</v>
       </c>
       <c r="F39">
-        <v>0.001178020863491226</v>
+        <v>-0.07400373462980618</v>
       </c>
       <c r="G39">
-        <v>-0.005307712998326261</v>
+        <v>0.01534750153584119</v>
       </c>
       <c r="H39">
-        <v>0.01329334570447133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08409524224939957</v>
+      </c>
+      <c r="I39">
+        <v>-0.1184317471248054</v>
+      </c>
+      <c r="J39">
+        <v>0.1357299712541681</v>
+      </c>
+      <c r="K39">
+        <v>-0.05118583470673056</v>
+      </c>
+      <c r="L39">
+        <v>-0.08195153101473927</v>
+      </c>
+      <c r="M39">
+        <v>0.03812988164895214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.07132513014271721</v>
+        <v>0.04225049358659214</v>
       </c>
       <c r="C40">
-        <v>0.05141619147322359</v>
+        <v>0.06519744729278057</v>
       </c>
       <c r="D40">
-        <v>-0.006708418055966456</v>
+        <v>0.04069287240064669</v>
       </c>
       <c r="E40">
-        <v>-0.2066728724148481</v>
+        <v>0.08112784676044278</v>
       </c>
       <c r="F40">
-        <v>-0.07323894482684903</v>
+        <v>-0.1204985167388813</v>
       </c>
       <c r="G40">
-        <v>-0.01874873998572686</v>
+        <v>-0.06225153950396822</v>
       </c>
       <c r="H40">
-        <v>0.03465601161582291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.03883158012817216</v>
+      </c>
+      <c r="I40">
+        <v>-0.1051856767791237</v>
+      </c>
+      <c r="J40">
+        <v>0.03090056969326808</v>
+      </c>
+      <c r="K40">
+        <v>-0.04147396808157824</v>
+      </c>
+      <c r="L40">
+        <v>-0.09240878525594269</v>
+      </c>
+      <c r="M40">
+        <v>-0.09793488345804831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04666862582411872</v>
+        <v>0.03790917042419042</v>
       </c>
       <c r="C41">
-        <v>0.0443937919201396</v>
+        <v>0.03466260644489272</v>
       </c>
       <c r="D41">
-        <v>-0.004649596036832516</v>
+        <v>-0.009293119997418432</v>
       </c>
       <c r="E41">
-        <v>-0.004579649048678235</v>
+        <v>-0.02420790709249624</v>
       </c>
       <c r="F41">
-        <v>-0.01144516924228025</v>
+        <v>-0.03528395266229171</v>
       </c>
       <c r="G41">
-        <v>-0.01443135435556185</v>
+        <v>0.02562427301529959</v>
       </c>
       <c r="H41">
-        <v>0.02062980253572245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.006827057344805704</v>
+      </c>
+      <c r="I41">
+        <v>-0.0394087381689108</v>
+      </c>
+      <c r="J41">
+        <v>-0.003348616122999624</v>
+      </c>
+      <c r="K41">
+        <v>-0.01847514516991831</v>
+      </c>
+      <c r="L41">
+        <v>-0.001039952483779931</v>
+      </c>
+      <c r="M41">
+        <v>-0.00207238514695571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05765589701501754</v>
+        <v>0.05396064107811562</v>
       </c>
       <c r="C43">
-        <v>0.03720706802106023</v>
+        <v>0.04933406632981714</v>
       </c>
       <c r="D43">
-        <v>0.01736900053748491</v>
+        <v>-0.009132374525782671</v>
       </c>
       <c r="E43">
-        <v>-0.01921050503799603</v>
+        <v>0.01871833445820517</v>
       </c>
       <c r="F43">
-        <v>-0.001894535010487672</v>
+        <v>-0.02025290260820245</v>
       </c>
       <c r="G43">
-        <v>0.00161100601017134</v>
+        <v>0.0495653803019608</v>
       </c>
       <c r="H43">
-        <v>0.0616940424901161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.001624888936254125</v>
+      </c>
+      <c r="I43">
+        <v>-0.02727561871195173</v>
+      </c>
+      <c r="J43">
+        <v>0.005144999175095167</v>
+      </c>
+      <c r="K43">
+        <v>-0.01880746232499559</v>
+      </c>
+      <c r="L43">
+        <v>0.03354369358630702</v>
+      </c>
+      <c r="M43">
+        <v>-0.005615039209458797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.0586088728503401</v>
+        <v>0.08173234287649887</v>
       </c>
       <c r="C44">
-        <v>0.04384728475886333</v>
+        <v>0.05786391913148801</v>
       </c>
       <c r="D44">
-        <v>0.07634118063219876</v>
+        <v>-0.05597003060939629</v>
       </c>
       <c r="E44">
-        <v>-0.1280757358020903</v>
+        <v>0.1220139977483441</v>
       </c>
       <c r="F44">
-        <v>-0.01417708269379374</v>
+        <v>-0.1072065611981962</v>
       </c>
       <c r="G44">
-        <v>-0.007876403190385571</v>
+        <v>0.04673460174797282</v>
       </c>
       <c r="H44">
-        <v>-0.02682484805527608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.0999380778933979</v>
+      </c>
+      <c r="I44">
+        <v>-0.06050970061116676</v>
+      </c>
+      <c r="J44">
+        <v>0.03745278166148319</v>
+      </c>
+      <c r="K44">
+        <v>0.002322511818371327</v>
+      </c>
+      <c r="L44">
+        <v>0.002849499606058695</v>
+      </c>
+      <c r="M44">
+        <v>0.01871479005648005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01942757701920437</v>
+        <v>0.04088953437415432</v>
       </c>
       <c r="C46">
-        <v>0.02738794522779506</v>
+        <v>0.03936835072669027</v>
       </c>
       <c r="D46">
-        <v>0.01371949612657953</v>
+        <v>-0.007002215761062682</v>
       </c>
       <c r="E46">
-        <v>-0.05059721392388466</v>
+        <v>0.03801302113216926</v>
       </c>
       <c r="F46">
-        <v>-0.02125535406545024</v>
+        <v>-0.01675586070991742</v>
       </c>
       <c r="G46">
-        <v>-0.006215707878111737</v>
+        <v>0.0245764747422499</v>
       </c>
       <c r="H46">
-        <v>-0.01185334164611245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.06259006929859147</v>
+      </c>
+      <c r="I46">
+        <v>-0.01063708304175063</v>
+      </c>
+      <c r="J46">
+        <v>-0.06258671435637374</v>
+      </c>
+      <c r="K46">
+        <v>-0.01072303838517124</v>
+      </c>
+      <c r="L46">
+        <v>-0.01165461496058522</v>
+      </c>
+      <c r="M46">
+        <v>-0.05719783455412523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02790126544759034</v>
+        <v>0.04403237037621901</v>
       </c>
       <c r="C47">
-        <v>-0.01084604462314618</v>
+        <v>0.02290278078229401</v>
       </c>
       <c r="D47">
-        <v>0.0008116851327423247</v>
+        <v>0.01404964599954685</v>
       </c>
       <c r="E47">
-        <v>-0.06013377224742363</v>
+        <v>0.02773796344833172</v>
       </c>
       <c r="F47">
-        <v>-0.03307440247841029</v>
+        <v>-0.01263922651485154</v>
       </c>
       <c r="G47">
-        <v>-0.0274312909152139</v>
+        <v>0.03681108683312569</v>
       </c>
       <c r="H47">
-        <v>-0.003482626141785101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02988416036439192</v>
+      </c>
+      <c r="I47">
+        <v>0.02342719394328831</v>
+      </c>
+      <c r="J47">
+        <v>-0.001146184951076172</v>
+      </c>
+      <c r="K47">
+        <v>-0.03032386554949293</v>
+      </c>
+      <c r="L47">
+        <v>0.04335182730387787</v>
+      </c>
+      <c r="M47">
+        <v>-0.05097279685405139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03869727375099329</v>
+        <v>0.04312409952007252</v>
       </c>
       <c r="C48">
-        <v>0.03053488225636761</v>
+        <v>0.01888510998506687</v>
       </c>
       <c r="D48">
-        <v>0.01387877375784156</v>
+        <v>0.01236826068359041</v>
       </c>
       <c r="E48">
-        <v>-0.04643123526836729</v>
+        <v>0.03467873798763964</v>
       </c>
       <c r="F48">
-        <v>-0.03692112026931486</v>
+        <v>-0.02093035058614293</v>
       </c>
       <c r="G48">
-        <v>-0.01472873453564485</v>
+        <v>-0.006178674571880169</v>
       </c>
       <c r="H48">
-        <v>0.05077015735318929</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.06643578113857926</v>
+      </c>
+      <c r="I48">
+        <v>-0.02322312411057865</v>
+      </c>
+      <c r="J48">
+        <v>0.003759656291968236</v>
+      </c>
+      <c r="K48">
+        <v>-0.06265601317417262</v>
+      </c>
+      <c r="L48">
+        <v>0.007946008950876311</v>
+      </c>
+      <c r="M48">
+        <v>-0.03222789346155024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1894122427463319</v>
+        <v>0.2229380570107156</v>
       </c>
       <c r="C49">
-        <v>0.1156716239135649</v>
+        <v>0.08102046393131825</v>
       </c>
       <c r="D49">
-        <v>0.05866817748497252</v>
+        <v>-0.07754106393824536</v>
       </c>
       <c r="E49">
-        <v>0.1035380087744926</v>
+        <v>-0.108205792135889</v>
       </c>
       <c r="F49">
-        <v>-0.04532536017953325</v>
+        <v>0.1977167435397113</v>
       </c>
       <c r="G49">
-        <v>0.1685442434864917</v>
+        <v>-0.1899681606620024</v>
       </c>
       <c r="H49">
-        <v>-0.07493890348743584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.01950653176916083</v>
+      </c>
+      <c r="I49">
+        <v>-0.07510410390494134</v>
+      </c>
+      <c r="J49">
+        <v>0.1099631259541591</v>
+      </c>
+      <c r="K49">
+        <v>0.1585359002888687</v>
+      </c>
+      <c r="L49">
+        <v>0.03422785108548441</v>
+      </c>
+      <c r="M49">
+        <v>-0.1228062693283324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05400466693602845</v>
+        <v>0.04336975754449029</v>
       </c>
       <c r="C50">
-        <v>0.02752091357702365</v>
+        <v>0.04046024746796634</v>
       </c>
       <c r="D50">
-        <v>0.001340046798768789</v>
+        <v>0.01414911353447211</v>
       </c>
       <c r="E50">
-        <v>-0.006751748567380479</v>
+        <v>0.00391794985341952</v>
       </c>
       <c r="F50">
-        <v>-0.03730511524676656</v>
+        <v>-0.03109536850568832</v>
       </c>
       <c r="G50">
-        <v>-0.05056363332910063</v>
+        <v>0.05545945745570022</v>
       </c>
       <c r="H50">
-        <v>-0.001319395542325504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.04584906447302117</v>
+      </c>
+      <c r="I50">
+        <v>0.03193678050334926</v>
+      </c>
+      <c r="J50">
+        <v>-0.02024606410735976</v>
+      </c>
+      <c r="K50">
+        <v>-0.008616856363786415</v>
+      </c>
+      <c r="L50">
+        <v>-0.0401131166726876</v>
+      </c>
+      <c r="M50">
+        <v>-0.01026181284056139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.0227227775542429</v>
+        <v>0.03160040731929255</v>
       </c>
       <c r="C51">
-        <v>-0.005410895929620753</v>
+        <v>0.001276156113508741</v>
       </c>
       <c r="D51">
-        <v>-0.0009747471239025149</v>
+        <v>-0.01854861799909042</v>
       </c>
       <c r="E51">
-        <v>-0.01095500896500592</v>
+        <v>0.002761749841078457</v>
       </c>
       <c r="F51">
-        <v>0.001904184852070186</v>
+        <v>0.01837536240097976</v>
       </c>
       <c r="G51">
-        <v>0.02118814188976177</v>
+        <v>-0.01126251806631158</v>
       </c>
       <c r="H51">
-        <v>-0.02359829388357832</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02207435581907534</v>
+      </c>
+      <c r="I51">
+        <v>-0.01083178845328014</v>
+      </c>
+      <c r="J51">
+        <v>0.06882802076557175</v>
+      </c>
+      <c r="K51">
+        <v>0.03963818615894914</v>
+      </c>
+      <c r="L51">
+        <v>0.073485900158045</v>
+      </c>
+      <c r="M51">
+        <v>0.04506688510067482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1680332701875758</v>
+        <v>0.1543059581395297</v>
       </c>
       <c r="C53">
-        <v>0.01869803733065287</v>
+        <v>0.05019444961762591</v>
       </c>
       <c r="D53">
-        <v>0.02595853770949754</v>
+        <v>-0.01468617637136297</v>
       </c>
       <c r="E53">
-        <v>0.05685343049609767</v>
+        <v>-0.05324600792637763</v>
       </c>
       <c r="F53">
-        <v>0.08510410847061871</v>
+        <v>0.02633084949006043</v>
       </c>
       <c r="G53">
-        <v>-0.2654948687796149</v>
+        <v>0.2390992388458703</v>
       </c>
       <c r="H53">
-        <v>0.03447348464398228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.06526224813721491</v>
+      </c>
+      <c r="I53">
+        <v>0.07801780860006642</v>
+      </c>
+      <c r="J53">
+        <v>-0.02698917036911876</v>
+      </c>
+      <c r="K53">
+        <v>0.08513256980271437</v>
+      </c>
+      <c r="L53">
+        <v>-0.06778477585837485</v>
+      </c>
+      <c r="M53">
+        <v>0.06052305096690599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.06280020487587978</v>
+        <v>0.05965553693474892</v>
       </c>
       <c r="C54">
-        <v>0.05826605227477075</v>
+        <v>0.0354166760264885</v>
       </c>
       <c r="D54">
-        <v>0.03298406905333785</v>
+        <v>7.827926463054057e-05</v>
       </c>
       <c r="E54">
-        <v>-0.04681993260057499</v>
+        <v>0.04664288737469039</v>
       </c>
       <c r="F54">
-        <v>-0.003136305797700837</v>
+        <v>-0.09490055844430213</v>
       </c>
       <c r="G54">
-        <v>-0.001479428809774797</v>
+        <v>0.02569439707829385</v>
       </c>
       <c r="H54">
-        <v>0.03229199398126027</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.09189926939485851</v>
+      </c>
+      <c r="I54">
+        <v>-0.01043218473463958</v>
+      </c>
+      <c r="J54">
+        <v>-0.05219678462556412</v>
+      </c>
+      <c r="K54">
+        <v>-0.05905203629135884</v>
+      </c>
+      <c r="L54">
+        <v>-0.01199368604497904</v>
+      </c>
+      <c r="M54">
+        <v>-0.0649849805605055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09596528440559432</v>
+        <v>0.09206778654425754</v>
       </c>
       <c r="C55">
-        <v>0.01050132716673598</v>
+        <v>0.041036562783496</v>
       </c>
       <c r="D55">
-        <v>0.02803775405646495</v>
+        <v>-0.02396288858673115</v>
       </c>
       <c r="E55">
-        <v>-0.006212757271911461</v>
+        <v>-0.0187461928383201</v>
       </c>
       <c r="F55">
-        <v>0.03978592333581357</v>
+        <v>-0.03022350934485756</v>
       </c>
       <c r="G55">
-        <v>-0.2370337287520123</v>
+        <v>0.1710053972424278</v>
       </c>
       <c r="H55">
-        <v>0.01140275568402127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.0006932274175198994</v>
+      </c>
+      <c r="I55">
+        <v>0.03649181919032755</v>
+      </c>
+      <c r="J55">
+        <v>-0.01656680202509338</v>
+      </c>
+      <c r="K55">
+        <v>0.0720968564578409</v>
+      </c>
+      <c r="L55">
+        <v>-0.01200642166436643</v>
+      </c>
+      <c r="M55">
+        <v>0.03164833729254794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1723456045108472</v>
+        <v>0.1473551735345511</v>
       </c>
       <c r="C56">
-        <v>0.01713690292600142</v>
+        <v>0.06836962601273047</v>
       </c>
       <c r="D56">
-        <v>0.06308701348516191</v>
+        <v>-0.02556741449842496</v>
       </c>
       <c r="E56">
-        <v>0.05749056034693677</v>
+        <v>-0.03088374148035788</v>
       </c>
       <c r="F56">
-        <v>0.1057306319334575</v>
+        <v>0.009971035491433054</v>
       </c>
       <c r="G56">
-        <v>-0.2217407758677763</v>
+        <v>0.245100864084884</v>
       </c>
       <c r="H56">
-        <v>0.04523227035939009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1032389800164867</v>
+      </c>
+      <c r="I56">
+        <v>0.0649303037157757</v>
+      </c>
+      <c r="J56">
+        <v>-0.02707387396457971</v>
+      </c>
+      <c r="K56">
+        <v>0.03830271338013595</v>
+      </c>
+      <c r="L56">
+        <v>-0.06030877960597185</v>
+      </c>
+      <c r="M56">
+        <v>0.03418612504082292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.05407882614964483</v>
+        <v>0.04354742027723783</v>
       </c>
       <c r="C58">
-        <v>0.06010047435700361</v>
+        <v>0.04087558381857109</v>
       </c>
       <c r="D58">
-        <v>0.06752253897338026</v>
+        <v>0.01059581186933681</v>
       </c>
       <c r="E58">
-        <v>-0.2772317670013627</v>
+        <v>0.101819614622244</v>
       </c>
       <c r="F58">
-        <v>-0.2176473960289682</v>
+        <v>0.04149086838818784</v>
       </c>
       <c r="G58">
-        <v>0.1310839645984167</v>
+        <v>-0.09785469262863329</v>
       </c>
       <c r="H58">
-        <v>-0.01138170797474174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.2237650598484887</v>
+      </c>
+      <c r="I58">
+        <v>0.05829617583295045</v>
+      </c>
+      <c r="J58">
+        <v>0.3975157727660821</v>
+      </c>
+      <c r="K58">
+        <v>-0.3283617104422861</v>
+      </c>
+      <c r="L58">
+        <v>0.240127660026848</v>
+      </c>
+      <c r="M58">
+        <v>0.1525915702540881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2351589448686791</v>
+        <v>0.2239958964839899</v>
       </c>
       <c r="C59">
-        <v>-0.4099676031132398</v>
+        <v>-0.3129176094047224</v>
       </c>
       <c r="D59">
-        <v>0.09063557045431415</v>
+        <v>-0.01589843524875029</v>
       </c>
       <c r="E59">
-        <v>-0.08647546686961531</v>
+        <v>0.004910450377488023</v>
       </c>
       <c r="F59">
-        <v>0.06054218419272363</v>
+        <v>-0.02241179200452132</v>
       </c>
       <c r="G59">
-        <v>0.005261534468701336</v>
+        <v>0.06248272871002166</v>
       </c>
       <c r="H59">
-        <v>0.01614369288207503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09210666255073524</v>
+      </c>
+      <c r="I59">
+        <v>-0.03571542059638733</v>
+      </c>
+      <c r="J59">
+        <v>0.01539003491857087</v>
+      </c>
+      <c r="K59">
+        <v>0.02460796568606152</v>
+      </c>
+      <c r="L59">
+        <v>0.03422930668341082</v>
+      </c>
+      <c r="M59">
+        <v>0.03042636476458293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2458106014380775</v>
+        <v>0.2421234052432261</v>
       </c>
       <c r="C60">
-        <v>0.07766283210037546</v>
+        <v>0.1098478641726864</v>
       </c>
       <c r="D60">
-        <v>0.07765994874350514</v>
+        <v>-0.07632471571669004</v>
       </c>
       <c r="E60">
-        <v>0.03298998698958123</v>
+        <v>-0.07643362750039956</v>
       </c>
       <c r="F60">
-        <v>-0.0048918393149952</v>
+        <v>0.06711400233408872</v>
       </c>
       <c r="G60">
-        <v>0.06072581045878736</v>
+        <v>-0.0747425814362648</v>
       </c>
       <c r="H60">
-        <v>-0.09908770595553047</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.09910787157728518</v>
+      </c>
+      <c r="I60">
+        <v>0.169204527220364</v>
+      </c>
+      <c r="J60">
+        <v>0.01021521431521917</v>
+      </c>
+      <c r="K60">
+        <v>0.07133853544812509</v>
+      </c>
+      <c r="L60">
+        <v>0.02852589096454747</v>
+      </c>
+      <c r="M60">
+        <v>0.1539856253491869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08039571859946323</v>
+        <v>0.08587527102191934</v>
       </c>
       <c r="C61">
-        <v>0.05756725086251102</v>
+        <v>0.05682853566864987</v>
       </c>
       <c r="D61">
-        <v>0.01247381735205471</v>
+        <v>-0.01759180918034741</v>
       </c>
       <c r="E61">
-        <v>-0.009112715050049021</v>
+        <v>0.02603100505546369</v>
       </c>
       <c r="F61">
-        <v>-0.01352785907542377</v>
+        <v>-0.07851028138251399</v>
       </c>
       <c r="G61">
-        <v>-0.01805676717590268</v>
+        <v>0.05608114646503314</v>
       </c>
       <c r="H61">
-        <v>0.02107763010086676</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.04892556620986966</v>
+      </c>
+      <c r="I61">
+        <v>-0.07475689779991426</v>
+      </c>
+      <c r="J61">
+        <v>0.05652788292030685</v>
+      </c>
+      <c r="K61">
+        <v>-0.02149441465090076</v>
+      </c>
+      <c r="L61">
+        <v>-0.03845062606196757</v>
+      </c>
+      <c r="M61">
+        <v>0.0008620637690246694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1610229397946661</v>
+        <v>0.1455323798605204</v>
       </c>
       <c r="C62">
-        <v>0.03250522234515677</v>
+        <v>0.06921853457610053</v>
       </c>
       <c r="D62">
-        <v>0.009534856607977151</v>
+        <v>-0.002656937837814641</v>
       </c>
       <c r="E62">
-        <v>0.1103045157190392</v>
+        <v>-0.07460858169506164</v>
       </c>
       <c r="F62">
-        <v>0.1057779278955431</v>
+        <v>-0.01620974123086256</v>
       </c>
       <c r="G62">
-        <v>-0.246493069994626</v>
+        <v>0.2151573186609273</v>
       </c>
       <c r="H62">
-        <v>0.02664408640913399</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.05463940185962395</v>
+      </c>
+      <c r="I62">
+        <v>0.0850532241811027</v>
+      </c>
+      <c r="J62">
+        <v>-0.07742647476729059</v>
+      </c>
+      <c r="K62">
+        <v>0.08437156641930493</v>
+      </c>
+      <c r="L62">
+        <v>-0.07218357728352594</v>
+      </c>
+      <c r="M62">
+        <v>-0.05075060503662988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04733391297795978</v>
+        <v>0.04456843600055388</v>
       </c>
       <c r="C63">
-        <v>0.04706915533481809</v>
+        <v>0.02853197543130338</v>
       </c>
       <c r="D63">
-        <v>0.01236439047438218</v>
+        <v>0.00784410976407823</v>
       </c>
       <c r="E63">
-        <v>0.003026686027762639</v>
+        <v>0.003771698494805738</v>
       </c>
       <c r="F63">
-        <v>-0.001241476077648545</v>
+        <v>-0.05476214695468581</v>
       </c>
       <c r="G63">
-        <v>-0.03939589122968198</v>
+        <v>0.01366536560877756</v>
       </c>
       <c r="H63">
-        <v>-0.02203372790672073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.07423580556455565</v>
+      </c>
+      <c r="I63">
+        <v>0.0114248384602259</v>
+      </c>
+      <c r="J63">
+        <v>-0.00398481157325545</v>
+      </c>
+      <c r="K63">
+        <v>-0.02067434201431649</v>
+      </c>
+      <c r="L63">
+        <v>-0.01379218152383344</v>
+      </c>
+      <c r="M63">
+        <v>-0.0346864967552562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1036449564120708</v>
+        <v>0.1017615439599773</v>
       </c>
       <c r="C64">
-        <v>0.03624811897254347</v>
+        <v>0.04630375500848021</v>
       </c>
       <c r="D64">
-        <v>0.02987164344509473</v>
+        <v>-0.02843730586127923</v>
       </c>
       <c r="E64">
-        <v>-0.02608871535411608</v>
+        <v>0.02697984321907873</v>
       </c>
       <c r="F64">
-        <v>-0.04451866572954383</v>
+        <v>-0.05356770020601845</v>
       </c>
       <c r="G64">
-        <v>0.01212730253019775</v>
+        <v>-0.01691198921607272</v>
       </c>
       <c r="H64">
-        <v>-0.004954181771236896</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.05915768187851176</v>
+      </c>
+      <c r="I64">
+        <v>-0.01713488647861179</v>
+      </c>
+      <c r="J64">
+        <v>0.03483995068786268</v>
+      </c>
+      <c r="K64">
+        <v>0.00410770351074008</v>
+      </c>
+      <c r="L64">
+        <v>-0.1051115666268972</v>
+      </c>
+      <c r="M64">
+        <v>-0.01794838472300716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1300470991524112</v>
+        <v>0.1251404523024743</v>
       </c>
       <c r="C65">
-        <v>0.05834655818068283</v>
+        <v>0.03610412926438177</v>
       </c>
       <c r="D65">
-        <v>0.04521111030657973</v>
+        <v>-0.009433361471170706</v>
       </c>
       <c r="E65">
-        <v>-0.0283224161733236</v>
+        <v>-0.01950381674910748</v>
       </c>
       <c r="F65">
-        <v>-0.1362974928622225</v>
+        <v>-0.07308190782016576</v>
       </c>
       <c r="G65">
-        <v>0.05285853522704798</v>
+        <v>-0.1701705712328916</v>
       </c>
       <c r="H65">
-        <v>-0.3298403161883301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2093243542766492</v>
+      </c>
+      <c r="I65">
+        <v>0.6095150004620501</v>
+      </c>
+      <c r="J65">
+        <v>-0.2252933222711982</v>
+      </c>
+      <c r="K65">
+        <v>-0.05994796547852296</v>
+      </c>
+      <c r="L65">
+        <v>0.1427780995019399</v>
+      </c>
+      <c r="M65">
+        <v>-0.05691563209027709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1565097558403211</v>
+        <v>0.1280678878499651</v>
       </c>
       <c r="C66">
-        <v>0.1361057447520756</v>
+        <v>0.1215807162960592</v>
       </c>
       <c r="D66">
-        <v>0.038990483409613</v>
+        <v>-0.001343107474383858</v>
       </c>
       <c r="E66">
-        <v>-0.0004680698063030937</v>
+        <v>0.02634325321143546</v>
       </c>
       <c r="F66">
-        <v>0.01019134409655262</v>
+        <v>-0.09802792100246392</v>
       </c>
       <c r="G66">
-        <v>-0.009681406481127433</v>
+        <v>0.03335029548451393</v>
       </c>
       <c r="H66">
-        <v>0.03514373375624542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08069134343548987</v>
+      </c>
+      <c r="I66">
+        <v>-0.1872982964412293</v>
+      </c>
+      <c r="J66">
+        <v>0.1337397062696262</v>
+      </c>
+      <c r="K66">
+        <v>-0.0190389621366501</v>
+      </c>
+      <c r="L66">
+        <v>-0.1482728911917153</v>
+      </c>
+      <c r="M66">
+        <v>0.06789268219670681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07391451959930775</v>
+        <v>0.08467502347370143</v>
       </c>
       <c r="C67">
-        <v>0.03977750303294545</v>
+        <v>0.06543519965952432</v>
       </c>
       <c r="D67">
-        <v>-0.0001375468714312306</v>
+        <v>-0.0190052672649122</v>
       </c>
       <c r="E67">
-        <v>-0.01714409001703242</v>
+        <v>0.02328911795686162</v>
       </c>
       <c r="F67">
-        <v>0.008565115934937757</v>
+        <v>0.01876131661049263</v>
       </c>
       <c r="G67">
-        <v>0.02953337621070626</v>
+        <v>0.01534464964005828</v>
       </c>
       <c r="H67">
-        <v>0.04349310112981022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1215956507455369</v>
+      </c>
+      <c r="I67">
+        <v>-0.03397213198226107</v>
+      </c>
+      <c r="J67">
+        <v>-0.06910521197432627</v>
+      </c>
+      <c r="K67">
+        <v>0.05938179839049196</v>
+      </c>
+      <c r="L67">
+        <v>-0.03977830246925718</v>
+      </c>
+      <c r="M67">
+        <v>-0.05324012498132106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.09739767815896359</v>
+        <v>0.1192755023171544</v>
       </c>
       <c r="C68">
-        <v>-0.2508238907461051</v>
+        <v>-0.2694273210622247</v>
       </c>
       <c r="D68">
-        <v>0.03498891024783858</v>
+        <v>0.005466752143472707</v>
       </c>
       <c r="E68">
-        <v>-0.0416474138115081</v>
+        <v>0.03945468451918287</v>
       </c>
       <c r="F68">
-        <v>-0.01692783735887633</v>
+        <v>0.008377096179009553</v>
       </c>
       <c r="G68">
-        <v>-0.02891439914929902</v>
+        <v>0.02467352035617726</v>
       </c>
       <c r="H68">
-        <v>0.03142034062507327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.02895806327864704</v>
+      </c>
+      <c r="I68">
+        <v>0.05477490040579612</v>
+      </c>
+      <c r="J68">
+        <v>-0.01674608310587881</v>
+      </c>
+      <c r="K68">
+        <v>-0.02927501440112107</v>
+      </c>
+      <c r="L68">
+        <v>-0.02776817831080391</v>
+      </c>
+      <c r="M68">
+        <v>-0.01894264292328843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04811151029789243</v>
+        <v>0.04597957873924202</v>
       </c>
       <c r="C69">
-        <v>0.01886233558910293</v>
+        <v>0.02219834802216595</v>
       </c>
       <c r="D69">
-        <v>0.007871081254691149</v>
+        <v>0.01014440869673005</v>
       </c>
       <c r="E69">
-        <v>-0.01711277492379979</v>
+        <v>0.003214720526443031</v>
       </c>
       <c r="F69">
-        <v>0.05214916302172825</v>
+        <v>-0.02638615866201902</v>
       </c>
       <c r="G69">
-        <v>-0.0245957860993187</v>
+        <v>0.04269773845112124</v>
       </c>
       <c r="H69">
-        <v>-0.01346934046206095</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01369703297860662</v>
+      </c>
+      <c r="I69">
+        <v>0.001936379694519844</v>
+      </c>
+      <c r="J69">
+        <v>0.01766095783769026</v>
+      </c>
+      <c r="K69">
+        <v>-0.01781984324745981</v>
+      </c>
+      <c r="L69">
+        <v>0.04922673603734119</v>
+      </c>
+      <c r="M69">
+        <v>-0.06374261477314173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03094754964437767</v>
+        <v>0.05500397949735158</v>
       </c>
       <c r="C70">
-        <v>0.009284722343946054</v>
+        <v>0.03294277125037511</v>
       </c>
       <c r="D70">
-        <v>-0.01153442385802612</v>
+        <v>-0.01723919442994605</v>
       </c>
       <c r="E70">
-        <v>-0.009582344470162303</v>
+        <v>-0.03355926342110625</v>
       </c>
       <c r="F70">
-        <v>-0.01417505268034096</v>
+        <v>-0.03381377775145622</v>
       </c>
       <c r="G70">
-        <v>0.09676005640406703</v>
+        <v>-0.03626318915782078</v>
       </c>
       <c r="H70">
-        <v>0.04620815076411747</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.07056560660468671</v>
+      </c>
+      <c r="I70">
+        <v>-0.1167748314487571</v>
+      </c>
+      <c r="J70">
+        <v>-0.1471817635616602</v>
+      </c>
+      <c r="K70">
+        <v>-0.1689835647147254</v>
+      </c>
+      <c r="L70">
+        <v>0.0440116984892085</v>
+      </c>
+      <c r="M70">
+        <v>-0.1032340205320011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.105172865009297</v>
+        <v>0.1338801512058947</v>
       </c>
       <c r="C71">
-        <v>-0.2647891224140794</v>
+        <v>-0.278293498500901</v>
       </c>
       <c r="D71">
-        <v>0.06965967866196049</v>
+        <v>-0.01600765376844421</v>
       </c>
       <c r="E71">
-        <v>-0.03877919496153441</v>
+        <v>0.04826467341381369</v>
       </c>
       <c r="F71">
-        <v>-0.02360950292443762</v>
+        <v>0.000806977657830173</v>
       </c>
       <c r="G71">
-        <v>0.003516040282975863</v>
+        <v>0.01172352393479945</v>
       </c>
       <c r="H71">
-        <v>0.03620229896167066</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02765638948760492</v>
+      </c>
+      <c r="I71">
+        <v>0.01007581657934743</v>
+      </c>
+      <c r="J71">
+        <v>-0.003274717400670686</v>
+      </c>
+      <c r="K71">
+        <v>0.007616992637074122</v>
+      </c>
+      <c r="L71">
+        <v>-0.006270823950051562</v>
+      </c>
+      <c r="M71">
+        <v>-0.01024712353166772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1851569416903643</v>
+        <v>0.141979341153546</v>
       </c>
       <c r="C72">
-        <v>0.006102690233903769</v>
+        <v>0.03181569307527451</v>
       </c>
       <c r="D72">
-        <v>-0.2243738407368067</v>
+        <v>0.1641420674435993</v>
       </c>
       <c r="E72">
-        <v>0.007066913206905403</v>
+        <v>-0.08399555677365277</v>
       </c>
       <c r="F72">
-        <v>0.01429455165419911</v>
+        <v>-0.1038044712520591</v>
       </c>
       <c r="G72">
-        <v>0.004260265192875741</v>
+        <v>0.01385005106040756</v>
       </c>
       <c r="H72">
-        <v>-0.1368765622556609</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.0131562094708212</v>
+      </c>
+      <c r="I72">
+        <v>0.1425295993132641</v>
+      </c>
+      <c r="J72">
+        <v>-0.01037102845713552</v>
+      </c>
+      <c r="K72">
+        <v>0.06279961213837648</v>
+      </c>
+      <c r="L72">
+        <v>0.02796457901596418</v>
+      </c>
+      <c r="M72">
+        <v>0.01832272981622517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2720100321612496</v>
+        <v>0.2375771183210825</v>
       </c>
       <c r="C73">
-        <v>0.1722829158329123</v>
+        <v>0.1569661789905077</v>
       </c>
       <c r="D73">
-        <v>0.1425899435421538</v>
+        <v>-0.1835268828758237</v>
       </c>
       <c r="E73">
-        <v>0.1208711258494741</v>
+        <v>-0.1775796862796522</v>
       </c>
       <c r="F73">
-        <v>-0.144221184353294</v>
+        <v>0.32928426343579</v>
       </c>
       <c r="G73">
-        <v>0.1193985469468909</v>
+        <v>-0.2604362596494852</v>
       </c>
       <c r="H73">
-        <v>-0.1688556008209409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.07583564396078338</v>
+      </c>
+      <c r="I73">
+        <v>0.08328758573203845</v>
+      </c>
+      <c r="J73">
+        <v>0.4622468191445532</v>
+      </c>
+      <c r="K73">
+        <v>0.2663644136406323</v>
+      </c>
+      <c r="L73">
+        <v>0.04446085809048932</v>
+      </c>
+      <c r="M73">
+        <v>-0.04708217892561685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.0899352100369307</v>
+        <v>0.08711340931166989</v>
       </c>
       <c r="C74">
-        <v>0.02055631479825224</v>
+        <v>0.06241835602238543</v>
       </c>
       <c r="D74">
-        <v>0.01464885932011029</v>
+        <v>-0.0064012178796689</v>
       </c>
       <c r="E74">
-        <v>0.0268728760873707</v>
+        <v>-0.02663953576568645</v>
       </c>
       <c r="F74">
-        <v>-0.01703469018864379</v>
+        <v>0.02317669485147214</v>
       </c>
       <c r="G74">
-        <v>-0.1634460601302306</v>
+        <v>0.1475452881964316</v>
       </c>
       <c r="H74">
-        <v>0.001145152212061749</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.005101634961058084</v>
+      </c>
+      <c r="I74">
+        <v>0.03560339607019068</v>
+      </c>
+      <c r="J74">
+        <v>0.04184883872350054</v>
+      </c>
+      <c r="K74">
+        <v>0.05292028268136859</v>
+      </c>
+      <c r="L74">
+        <v>-0.0209512521107732</v>
+      </c>
+      <c r="M74">
+        <v>-0.04358624055903594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.10111422105505</v>
+        <v>0.09074234805661709</v>
       </c>
       <c r="C75">
-        <v>0.01526109956536841</v>
+        <v>0.0471238488534279</v>
       </c>
       <c r="D75">
-        <v>0.01636479213018564</v>
+        <v>0.0031769345556746</v>
       </c>
       <c r="E75">
-        <v>0.0196630217258639</v>
+        <v>-0.02133693179524613</v>
       </c>
       <c r="F75">
-        <v>0.09260789677316889</v>
+        <v>0.006076359289407069</v>
       </c>
       <c r="G75">
-        <v>-0.0915924105003466</v>
+        <v>0.1246244908929836</v>
       </c>
       <c r="H75">
-        <v>0.03274265395896074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07286627971637628</v>
+      </c>
+      <c r="I75">
+        <v>0.01785830805528488</v>
+      </c>
+      <c r="J75">
+        <v>-0.01632671658905866</v>
+      </c>
+      <c r="K75">
+        <v>-0.02279107529008808</v>
+      </c>
+      <c r="L75">
+        <v>0.06806606294730413</v>
+      </c>
+      <c r="M75">
+        <v>-0.007582624784166715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1335532431157342</v>
+        <v>0.105380860200616</v>
       </c>
       <c r="C76">
-        <v>0.02610445568105755</v>
+        <v>0.06973175965349157</v>
       </c>
       <c r="D76">
-        <v>0.02207397992792361</v>
+        <v>-0.02389432313038451</v>
       </c>
       <c r="E76">
-        <v>0.02247331175762731</v>
+        <v>-0.03463148284397845</v>
       </c>
       <c r="F76">
-        <v>0.07288305363269386</v>
+        <v>0.02438140400182513</v>
       </c>
       <c r="G76">
-        <v>-0.2339892920994641</v>
+        <v>0.2307464955392118</v>
       </c>
       <c r="H76">
-        <v>0.008304801427126651</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.05113912526995645</v>
+      </c>
+      <c r="I76">
+        <v>0.06679078207587127</v>
+      </c>
+      <c r="J76">
+        <v>-0.005057352527014536</v>
+      </c>
+      <c r="K76">
+        <v>0.08009271340589623</v>
+      </c>
+      <c r="L76">
+        <v>-0.08126814813566692</v>
+      </c>
+      <c r="M76">
+        <v>0.04622956083351781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.09228528405930697</v>
+        <v>0.07557489055058579</v>
       </c>
       <c r="C77">
-        <v>0.05637174332700358</v>
+        <v>0.02306974303113053</v>
       </c>
       <c r="D77">
-        <v>-0.04470717920860555</v>
+        <v>-0.006961687606172227</v>
       </c>
       <c r="E77">
-        <v>-0.3625008831202416</v>
+        <v>0.141445284605369</v>
       </c>
       <c r="F77">
-        <v>0.4716461027102393</v>
+        <v>-0.6099364320252678</v>
       </c>
       <c r="G77">
-        <v>0.2087457417414699</v>
+        <v>-0.3286558571045606</v>
       </c>
       <c r="H77">
-        <v>-0.5118377506441966</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.5200116473730847</v>
+      </c>
+      <c r="I77">
+        <v>0.07821331769207296</v>
+      </c>
+      <c r="J77">
+        <v>0.1058877820975317</v>
+      </c>
+      <c r="K77">
+        <v>0.1629931164997181</v>
+      </c>
+      <c r="L77">
+        <v>-0.128891471869651</v>
+      </c>
+      <c r="M77">
+        <v>0.04294493230505892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1296549986680183</v>
+        <v>0.1663880014985067</v>
       </c>
       <c r="C78">
-        <v>0.1082544760314317</v>
+        <v>0.1129725683488029</v>
       </c>
       <c r="D78">
-        <v>0.01858811320395273</v>
+        <v>-0.007157502649667168</v>
       </c>
       <c r="E78">
-        <v>-0.1025977554791918</v>
+        <v>0.1974627789587927</v>
       </c>
       <c r="F78">
-        <v>-0.0920665856355973</v>
+        <v>-0.02177231714680401</v>
       </c>
       <c r="G78">
-        <v>0.02438076939658873</v>
+        <v>-0.07415708740574396</v>
       </c>
       <c r="H78">
-        <v>0.04466566182914739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.1420960492679061</v>
+      </c>
+      <c r="I78">
+        <v>-0.1547341637392582</v>
+      </c>
+      <c r="J78">
+        <v>-0.2125063722749642</v>
+      </c>
+      <c r="K78">
+        <v>0.2889146838249537</v>
+      </c>
+      <c r="L78">
+        <v>0.3083525473397826</v>
+      </c>
+      <c r="M78">
+        <v>0.6459330685963015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1477313236730344</v>
+        <v>0.136271555648283</v>
       </c>
       <c r="C79">
-        <v>0.04240981718285138</v>
+        <v>0.06788060125538489</v>
       </c>
       <c r="D79">
-        <v>0.01564273843541871</v>
+        <v>-0.007732012179456175</v>
       </c>
       <c r="E79">
-        <v>0.0468323562564236</v>
+        <v>-0.01777020383856626</v>
       </c>
       <c r="F79">
-        <v>0.1063034095150777</v>
+        <v>-0.01848201416836648</v>
       </c>
       <c r="G79">
-        <v>-0.1555458470182616</v>
+        <v>0.1830502338580325</v>
       </c>
       <c r="H79">
-        <v>0.04260510064382093</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.06996410935265771</v>
+      </c>
+      <c r="I79">
+        <v>0.06778214090063682</v>
+      </c>
+      <c r="J79">
+        <v>-0.03772591355439042</v>
+      </c>
+      <c r="K79">
+        <v>0.02654952793145935</v>
+      </c>
+      <c r="L79">
+        <v>-0.0006468763363640975</v>
+      </c>
+      <c r="M79">
+        <v>-0.04538980078520029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02059033994563766</v>
+        <v>0.04039144850228978</v>
       </c>
       <c r="C80">
-        <v>0.004055090780545756</v>
+        <v>0.0160230933034091</v>
       </c>
       <c r="D80">
-        <v>-0.003030168786201812</v>
+        <v>-0.03311570197332528</v>
       </c>
       <c r="E80">
-        <v>-0.01345562734975926</v>
+        <v>-0.05952927652856981</v>
       </c>
       <c r="F80">
-        <v>-0.04609438457967842</v>
+        <v>-0.02676191606507501</v>
       </c>
       <c r="G80">
-        <v>-0.008975850889613807</v>
+        <v>-0.0209912757098058</v>
       </c>
       <c r="H80">
-        <v>-0.03552586181375798</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.1107324572398288</v>
+      </c>
+      <c r="I80">
+        <v>-0.04804758762754297</v>
+      </c>
+      <c r="J80">
+        <v>0.01419107921324783</v>
+      </c>
+      <c r="K80">
+        <v>0.0031243657626129</v>
+      </c>
+      <c r="L80">
+        <v>0.03565163103163436</v>
+      </c>
+      <c r="M80">
+        <v>-0.09428735449150688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1225032229979021</v>
+        <v>0.1228354520352384</v>
       </c>
       <c r="C81">
-        <v>0.03538773599240242</v>
+        <v>0.04864079470083591</v>
       </c>
       <c r="D81">
-        <v>0.03094358478074941</v>
+        <v>-0.01051353521348154</v>
       </c>
       <c r="E81">
-        <v>0.03121346820205089</v>
+        <v>-0.01312597951645524</v>
       </c>
       <c r="F81">
-        <v>0.05646482058790588</v>
+        <v>-0.01406872010864461</v>
       </c>
       <c r="G81">
-        <v>-0.09227741439935457</v>
+        <v>0.1672704482095535</v>
       </c>
       <c r="H81">
-        <v>0.003147707377811819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.02885739458325918</v>
+      </c>
+      <c r="I81">
+        <v>0.005996956079444716</v>
+      </c>
+      <c r="J81">
+        <v>0.03355319883241646</v>
+      </c>
+      <c r="K81">
+        <v>-0.02923287263716197</v>
+      </c>
+      <c r="L81">
+        <v>-0.003814410900501611</v>
+      </c>
+      <c r="M81">
+        <v>-0.07319632916680377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1170311555846186</v>
+        <v>0.1180753658549383</v>
       </c>
       <c r="C82">
-        <v>0.0392151493408548</v>
+        <v>0.05337598962084138</v>
       </c>
       <c r="D82">
-        <v>0.05061864798045663</v>
+        <v>-0.01295340464657758</v>
       </c>
       <c r="E82">
-        <v>0.07036060578288304</v>
+        <v>-0.0396682269576835</v>
       </c>
       <c r="F82">
-        <v>0.1555395528251168</v>
+        <v>0.01382734765268651</v>
       </c>
       <c r="G82">
-        <v>-0.2495727877148188</v>
+        <v>0.2633516741627233</v>
       </c>
       <c r="H82">
-        <v>0.07832503505499963</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.07673987200127386</v>
+      </c>
+      <c r="I82">
+        <v>-0.03244643522421879</v>
+      </c>
+      <c r="J82">
+        <v>-0.01756216869147991</v>
+      </c>
+      <c r="K82">
+        <v>0.00803426668728242</v>
+      </c>
+      <c r="L82">
+        <v>-0.04250039718253327</v>
+      </c>
+      <c r="M82">
+        <v>-0.1202022523902454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.04615796119561983</v>
+        <v>0.07515344861317388</v>
       </c>
       <c r="C83">
-        <v>0.02930214902422336</v>
+        <v>0.05479529561943557</v>
       </c>
       <c r="D83">
-        <v>0.02617197608971602</v>
+        <v>-0.02807505761024729</v>
       </c>
       <c r="E83">
-        <v>0.02745519497221269</v>
+        <v>-0.004096792852048562</v>
       </c>
       <c r="F83">
-        <v>-0.01684881025281541</v>
+        <v>-0.01042250863837327</v>
       </c>
       <c r="G83">
-        <v>0.1110471310722859</v>
+        <v>-0.0386250363581792</v>
       </c>
       <c r="H83">
-        <v>0.05215061138896084</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.009545623460200816</v>
+      </c>
+      <c r="I83">
+        <v>-0.08267441795661681</v>
+      </c>
+      <c r="J83">
+        <v>-0.0608361468739268</v>
+      </c>
+      <c r="K83">
+        <v>-0.07908146340769498</v>
+      </c>
+      <c r="L83">
+        <v>0.05612929590631419</v>
+      </c>
+      <c r="M83">
+        <v>-0.04232490899330225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05568186174125841</v>
+        <v>0.04196232009285945</v>
       </c>
       <c r="C84">
-        <v>0.0258330630391485</v>
+        <v>-0.02142208521786464</v>
       </c>
       <c r="D84">
-        <v>-0.01402071266067012</v>
+        <v>0.02962455744939239</v>
       </c>
       <c r="E84">
-        <v>0.01674964840761254</v>
+        <v>0.02030357649604109</v>
       </c>
       <c r="F84">
-        <v>-0.1121641821912209</v>
+        <v>0.06354461742479144</v>
       </c>
       <c r="G84">
-        <v>-0.03913983658732414</v>
+        <v>-0.149568645831205</v>
       </c>
       <c r="H84">
-        <v>0.08742184628010922</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2078069648242584</v>
+      </c>
+      <c r="I84">
+        <v>-0.2337960348055289</v>
+      </c>
+      <c r="J84">
+        <v>-0.2259370702298936</v>
+      </c>
+      <c r="K84">
+        <v>0.3846808899188573</v>
+      </c>
+      <c r="L84">
+        <v>-0.06742961663171788</v>
+      </c>
+      <c r="M84">
+        <v>-0.1062373703133814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08141546693468149</v>
+        <v>0.1071841696862171</v>
       </c>
       <c r="C85">
-        <v>0.04754650558135992</v>
+        <v>0.0525357015412916</v>
       </c>
       <c r="D85">
-        <v>0.05591296134175292</v>
+        <v>-0.04655750316503295</v>
       </c>
       <c r="E85">
-        <v>0.01704482186798085</v>
+        <v>-0.004833758462454501</v>
       </c>
       <c r="F85">
-        <v>0.06664403190717964</v>
+        <v>-0.01200370465740627</v>
       </c>
       <c r="G85">
-        <v>-0.1696728863044909</v>
+        <v>0.1849890852096995</v>
       </c>
       <c r="H85">
-        <v>-0.003657792407602507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.04157214974173074</v>
+      </c>
+      <c r="I85">
+        <v>0.05487302870221576</v>
+      </c>
+      <c r="J85">
+        <v>-0.03122807007678716</v>
+      </c>
+      <c r="K85">
+        <v>0.0417910466571441</v>
+      </c>
+      <c r="L85">
+        <v>0.006030292050755213</v>
+      </c>
+      <c r="M85">
+        <v>-0.03612135181427867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03963145570711542</v>
+        <v>0.0701539953238333</v>
       </c>
       <c r="C86">
-        <v>0.05478276681711831</v>
+        <v>0.02299300892911764</v>
       </c>
       <c r="D86">
-        <v>-0.01429184398229102</v>
+        <v>-0.006362676221825134</v>
       </c>
       <c r="E86">
-        <v>-0.04540161467064537</v>
+        <v>0.06165476586569268</v>
       </c>
       <c r="F86">
-        <v>-0.04735251250701347</v>
+        <v>0.006969131752557588</v>
       </c>
       <c r="G86">
-        <v>0.0419397583576552</v>
+        <v>-0.08839973999569212</v>
       </c>
       <c r="H86">
-        <v>-0.08127820058871203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.1001204409465319</v>
+      </c>
+      <c r="I86">
+        <v>-0.2284938842863933</v>
+      </c>
+      <c r="J86">
+        <v>-0.2807609837269243</v>
+      </c>
+      <c r="K86">
+        <v>0.2538967107205422</v>
+      </c>
+      <c r="L86">
+        <v>0.160272238285875</v>
+      </c>
+      <c r="M86">
+        <v>-0.2303514297004698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.1037337860882534</v>
+        <v>0.1194469663808994</v>
       </c>
       <c r="C87">
-        <v>0.08170541305554214</v>
+        <v>0.07387748078176687</v>
       </c>
       <c r="D87">
-        <v>0.003191231895036294</v>
+        <v>0.005879944053843127</v>
       </c>
       <c r="E87">
-        <v>-0.1776501538966642</v>
+        <v>0.08404759004223084</v>
       </c>
       <c r="F87">
-        <v>0.07101663831686678</v>
+        <v>-0.182767355940773</v>
       </c>
       <c r="G87">
-        <v>0.05453682818425282</v>
+        <v>-0.1532443036476734</v>
       </c>
       <c r="H87">
-        <v>-0.1244040312091674</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.03849854750015572</v>
+      </c>
+      <c r="I87">
+        <v>-0.03393584071281146</v>
+      </c>
+      <c r="J87">
+        <v>0.01291008638363565</v>
+      </c>
+      <c r="K87">
+        <v>0.02017841990053334</v>
+      </c>
+      <c r="L87">
+        <v>-0.1011146777180968</v>
+      </c>
+      <c r="M87">
+        <v>-0.1436545545415412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04625742134472031</v>
+        <v>0.05948098440141077</v>
       </c>
       <c r="C88">
-        <v>0.0356926215384543</v>
+        <v>0.05162142255249578</v>
       </c>
       <c r="D88">
-        <v>0.01421033596095407</v>
+        <v>-0.02539455893788898</v>
       </c>
       <c r="E88">
-        <v>-0.00114639786471621</v>
+        <v>-0.01553139428608512</v>
       </c>
       <c r="F88">
-        <v>-0.007693211861526412</v>
+        <v>-0.03257312436277102</v>
       </c>
       <c r="G88">
-        <v>0.02224962703532284</v>
+        <v>0.01973433051367664</v>
       </c>
       <c r="H88">
-        <v>0.007817123009719273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.04597041452154294</v>
+      </c>
+      <c r="I88">
+        <v>-0.03857409543239277</v>
+      </c>
+      <c r="J88">
+        <v>0.02497239489396216</v>
+      </c>
+      <c r="K88">
+        <v>-0.01898258571691424</v>
+      </c>
+      <c r="L88">
+        <v>0.0049463884876504</v>
+      </c>
+      <c r="M88">
+        <v>-0.003843107126389198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1594286940466684</v>
+        <v>0.2187555120037581</v>
       </c>
       <c r="C89">
-        <v>-0.2998923968156422</v>
+        <v>-0.354064217542476</v>
       </c>
       <c r="D89">
-        <v>0.1123308737674751</v>
+        <v>-0.06763886558461561</v>
       </c>
       <c r="E89">
-        <v>-0.09982880550009519</v>
+        <v>0.07077568676709679</v>
       </c>
       <c r="F89">
-        <v>-0.008798550598900268</v>
+        <v>0.008160820965288806</v>
       </c>
       <c r="G89">
-        <v>0.04082488867354811</v>
+        <v>0.008655656917391312</v>
       </c>
       <c r="H89">
-        <v>0.02681258165022848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01713249164983757</v>
+      </c>
+      <c r="I89">
+        <v>-0.05271784244400243</v>
+      </c>
+      <c r="J89">
+        <v>0.09131521534187977</v>
+      </c>
+      <c r="K89">
+        <v>-0.07743408248870733</v>
+      </c>
+      <c r="L89">
+        <v>0.05009569917620017</v>
+      </c>
+      <c r="M89">
+        <v>-0.01040293940352116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1245886385265798</v>
+        <v>0.1473005404019828</v>
       </c>
       <c r="C90">
-        <v>-0.265726331106464</v>
+        <v>-0.2660990359590812</v>
       </c>
       <c r="D90">
-        <v>0.04746363588848725</v>
+        <v>-0.01397578740440589</v>
       </c>
       <c r="E90">
-        <v>-0.08654896511626053</v>
+        <v>0.03408316468049285</v>
       </c>
       <c r="F90">
-        <v>-0.03736799693962586</v>
+        <v>-0.0218392707119996</v>
       </c>
       <c r="G90">
-        <v>0.03439602821922792</v>
+        <v>-0.02996931237986957</v>
       </c>
       <c r="H90">
-        <v>0.000952656495606992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02882712689414497</v>
+      </c>
+      <c r="I90">
+        <v>-0.00413268443309488</v>
+      </c>
+      <c r="J90">
+        <v>0.04615956944957476</v>
+      </c>
+      <c r="K90">
+        <v>0.01208770711497642</v>
+      </c>
+      <c r="L90">
+        <v>-0.03799993895625314</v>
+      </c>
+      <c r="M90">
+        <v>0.02744824915092063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08510857252522933</v>
+        <v>0.07512815854007883</v>
       </c>
       <c r="C91">
-        <v>0.02392532862139669</v>
+        <v>0.04915747767296352</v>
       </c>
       <c r="D91">
-        <v>0.01048567631781792</v>
+        <v>-0.004379019700350999</v>
       </c>
       <c r="E91">
-        <v>0.00667638335416324</v>
+        <v>-0.008852025189089247</v>
       </c>
       <c r="F91">
-        <v>0.03649710597335889</v>
+        <v>0.01757454614842537</v>
       </c>
       <c r="G91">
-        <v>-0.1025132658895562</v>
+        <v>0.09511725521547536</v>
       </c>
       <c r="H91">
-        <v>0.01684963965157376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04810500592166669</v>
+      </c>
+      <c r="I91">
+        <v>0.02915799299384405</v>
+      </c>
+      <c r="J91">
+        <v>0.01974282241547312</v>
+      </c>
+      <c r="K91">
+        <v>0.008762057579404302</v>
+      </c>
+      <c r="L91">
+        <v>0.03042255172878756</v>
+      </c>
+      <c r="M91">
+        <v>0.02223620523943969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1359213531449721</v>
+        <v>0.1631243416739718</v>
       </c>
       <c r="C92">
-        <v>-0.3154462369825398</v>
+        <v>-0.3072517348649847</v>
       </c>
       <c r="D92">
-        <v>0.08664173007490598</v>
+        <v>-0.02336976290016676</v>
       </c>
       <c r="E92">
-        <v>-0.0304827070342299</v>
+        <v>0.04931799316892529</v>
       </c>
       <c r="F92">
-        <v>-0.06613975914344869</v>
+        <v>0.01640445658248796</v>
       </c>
       <c r="G92">
-        <v>-0.0002997875480281695</v>
+        <v>0.03931578252559078</v>
       </c>
       <c r="H92">
-        <v>0.06147155303927884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03064451735545568</v>
+      </c>
+      <c r="I92">
+        <v>-0.02671990582462223</v>
+      </c>
+      <c r="J92">
+        <v>0.03322909109949307</v>
+      </c>
+      <c r="K92">
+        <v>-0.01799360742441436</v>
+      </c>
+      <c r="L92">
+        <v>-0.0001527937489471475</v>
+      </c>
+      <c r="M92">
+        <v>0.01984449984059235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1277678870395491</v>
+        <v>0.1609406371425622</v>
       </c>
       <c r="C93">
-        <v>-0.2516079625500965</v>
+        <v>-0.2897860394252743</v>
       </c>
       <c r="D93">
-        <v>0.04901829872137803</v>
+        <v>-0.01148950901026859</v>
       </c>
       <c r="E93">
-        <v>-0.03577050037156671</v>
+        <v>0.01431839503574268</v>
       </c>
       <c r="F93">
-        <v>-0.03002062783574484</v>
+        <v>0.01028686650699342</v>
       </c>
       <c r="G93">
-        <v>0.05647012107183183</v>
+        <v>-0.01583943725050848</v>
       </c>
       <c r="H93">
-        <v>0.009404834261333664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01340942243534456</v>
+      </c>
+      <c r="I93">
+        <v>-0.01069082304456866</v>
+      </c>
+      <c r="J93">
+        <v>-0.02497819060986923</v>
+      </c>
+      <c r="K93">
+        <v>-0.01331085265641123</v>
+      </c>
+      <c r="L93">
+        <v>-0.02482785285193463</v>
+      </c>
+      <c r="M93">
+        <v>-0.022597666979756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08808193992087417</v>
+        <v>0.1051222706938811</v>
       </c>
       <c r="C94">
-        <v>0.06379426826895195</v>
+        <v>0.07676120781038247</v>
       </c>
       <c r="D94">
-        <v>0.02267685133978215</v>
+        <v>-0.02166008940797987</v>
       </c>
       <c r="E94">
-        <v>-0.003306911386442951</v>
+        <v>0.006720660172650374</v>
       </c>
       <c r="F94">
-        <v>0.06086818289408943</v>
+        <v>0.04643872861348193</v>
       </c>
       <c r="G94">
-        <v>-0.1336019099236372</v>
+        <v>0.1250951741513783</v>
       </c>
       <c r="H94">
-        <v>0.05916375900687194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.03609274349606163</v>
+      </c>
+      <c r="I94">
+        <v>0.02452647195393918</v>
+      </c>
+      <c r="J94">
+        <v>0.003411574380309671</v>
+      </c>
+      <c r="K94">
+        <v>-0.02609331588665596</v>
+      </c>
+      <c r="L94">
+        <v>0.05986370288086749</v>
+      </c>
+      <c r="M94">
+        <v>-0.02180655045343278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1064236695452171</v>
+        <v>0.1329389588547872</v>
       </c>
       <c r="C95">
-        <v>0.1168506971191414</v>
+        <v>0.0768552106929304</v>
       </c>
       <c r="D95">
-        <v>0.07857908879362149</v>
+        <v>-0.0385916426565393</v>
       </c>
       <c r="E95">
-        <v>0.009615765101537589</v>
+        <v>0.06293469852135586</v>
       </c>
       <c r="F95">
-        <v>-0.04260136669150634</v>
+        <v>-0.01654359433355596</v>
       </c>
       <c r="G95">
-        <v>0.02027554031913038</v>
+        <v>-0.1630827489107793</v>
       </c>
       <c r="H95">
-        <v>-0.05772982787883126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1163345493017939</v>
+      </c>
+      <c r="I95">
+        <v>-0.04975995438241047</v>
+      </c>
+      <c r="J95">
+        <v>0.02170672458232881</v>
+      </c>
+      <c r="K95">
+        <v>-0.02516641414145503</v>
+      </c>
+      <c r="L95">
+        <v>0.1264681938372799</v>
+      </c>
+      <c r="M95">
+        <v>-0.4345990715568905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3000997014158893</v>
+        <v>0.1762200963071457</v>
       </c>
       <c r="C97">
-        <v>-0.09040138594754386</v>
+        <v>-0.01037443176645774</v>
       </c>
       <c r="D97">
-        <v>-0.8701955484302596</v>
+        <v>0.873858947869139</v>
       </c>
       <c r="E97">
-        <v>0.1351877341251766</v>
+        <v>-0.3428584912653406</v>
       </c>
       <c r="F97">
-        <v>-0.08751171085993785</v>
+        <v>-0.04319653429448504</v>
       </c>
       <c r="G97">
-        <v>0.04329328088024161</v>
+        <v>-0.06960023656912091</v>
       </c>
       <c r="H97">
-        <v>-0.02893216220712509</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04871825311443167</v>
+      </c>
+      <c r="I97">
+        <v>-0.06179850734773696</v>
+      </c>
+      <c r="J97">
+        <v>0.07369859975378744</v>
+      </c>
+      <c r="K97">
+        <v>0.005787539130251154</v>
+      </c>
+      <c r="L97">
+        <v>0.0252503402667061</v>
+      </c>
+      <c r="M97">
+        <v>0.02428505502554806</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2463636444193867</v>
+        <v>0.2573586190949876</v>
       </c>
       <c r="C98">
-        <v>0.09838084423182426</v>
+        <v>0.1217823460210703</v>
       </c>
       <c r="D98">
-        <v>0.14668981746421</v>
+        <v>-0.1084187596721828</v>
       </c>
       <c r="E98">
-        <v>0.417514392030116</v>
+        <v>-0.2393595864104492</v>
       </c>
       <c r="F98">
-        <v>-0.07825642967800828</v>
+        <v>0.2870318458557025</v>
       </c>
       <c r="G98">
-        <v>0.4964716603671372</v>
+        <v>-0.2991061046772258</v>
       </c>
       <c r="H98">
-        <v>0.2657009725987644</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1992950672207843</v>
+      </c>
+      <c r="I98">
+        <v>-0.1739438270776298</v>
+      </c>
+      <c r="J98">
+        <v>-0.3450036711687463</v>
+      </c>
+      <c r="K98">
+        <v>-0.4291215734906145</v>
+      </c>
+      <c r="L98">
+        <v>-0.2815601819454319</v>
+      </c>
+      <c r="M98">
+        <v>0.1866642052394523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.07737042912252889</v>
+        <v>0.07948684710151786</v>
       </c>
       <c r="C99">
-        <v>0.06459975231273155</v>
+        <v>0.0635584490004488</v>
       </c>
       <c r="D99">
-        <v>-0.05760751910703964</v>
+        <v>0.01642921215603411</v>
       </c>
       <c r="E99">
-        <v>-0.12190055341816</v>
+        <v>0.0520852319830421</v>
       </c>
       <c r="F99">
-        <v>0.642647465433157</v>
+        <v>-0.03824131690359684</v>
       </c>
       <c r="G99">
-        <v>0.2904136682013667</v>
+        <v>0.06650376288127399</v>
       </c>
       <c r="H99">
-        <v>0.4581236837142378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.3798026839270434</v>
+      </c>
+      <c r="I99">
+        <v>-0.1931196493646358</v>
+      </c>
+      <c r="J99">
+        <v>-0.06921854519312284</v>
+      </c>
+      <c r="K99">
+        <v>-0.2896766655292655</v>
+      </c>
+      <c r="L99">
+        <v>0.6165959639746874</v>
+      </c>
+      <c r="M99">
+        <v>-0.07861810547725391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04806354206388658</v>
+        <v>0.04564728307532556</v>
       </c>
       <c r="C101">
-        <v>0.007560074241613614</v>
+        <v>0.02125361786405739</v>
       </c>
       <c r="D101">
-        <v>0.01150129587982627</v>
+        <v>-0.012942418231392</v>
       </c>
       <c r="E101">
-        <v>-0.02423276779435914</v>
+        <v>0.02263269588852358</v>
       </c>
       <c r="F101">
-        <v>-0.03674983788898144</v>
+        <v>-0.03764633225029823</v>
       </c>
       <c r="G101">
-        <v>-0.01453723529498441</v>
+        <v>0.04728154842949197</v>
       </c>
       <c r="H101">
-        <v>-0.01269837520993466</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.06032845781894292</v>
+      </c>
+      <c r="I101">
+        <v>-0.003503154488540836</v>
+      </c>
+      <c r="J101">
+        <v>-0.021976750528555</v>
+      </c>
+      <c r="K101">
+        <v>-0.005425217063529526</v>
+      </c>
+      <c r="L101">
+        <v>-0.02119813685791286</v>
+      </c>
+      <c r="M101">
+        <v>-0.03012759609575174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
